--- a/Assets/Resources_moved/CSVSheet/DataTable.xlsx
+++ b/Assets/Resources_moved/CSVSheet/DataTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inha\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Project_EverScord\Assets\Resources_moved\CSVSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterSkill" sheetId="1" r:id="rId1"/>
@@ -807,10 +807,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SK_122101</t>
   </si>
   <si>
@@ -1518,19 +1514,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cooldown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReloadSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HealPerBullet</t>
+    <t>HealIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooldownDecrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReloadSpeedDecrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDamageIncrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2670,12 +2670,12 @@
         <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="s">
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>20</v>
@@ -2709,16 +2709,16 @@
         <v>24</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>25</v>
@@ -2738,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>18</v>
@@ -2753,25 +2753,25 @@
         <v>23</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H3" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>315</v>
-      </c>
       <c r="J3" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="M3" s="23" t="s">
         <v>269</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>270</v>
       </c>
       <c r="N3" s="22" t="s">
         <v>11</v>
@@ -2797,16 +2797,16 @@
         <v>7</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>8</v>
@@ -3545,12 +3545,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2"/>
@@ -3566,16 +3566,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>330</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -3590,16 +3590,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>337</v>
-      </c>
       <c r="E3" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -3617,10 +3617,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>331</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>332</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>8</v>
@@ -3635,10 +3635,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="105" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" s="88">
         <v>2.5</v>
@@ -3661,7 +3661,7 @@
     <row r="6" spans="1:13">
       <c r="A6" s="106"/>
       <c r="B6" s="95" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C6" s="88">
         <v>2.5</v>
@@ -3684,7 +3684,7 @@
     <row r="7" spans="1:13">
       <c r="A7" s="106"/>
       <c r="B7" s="95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C7" s="88">
         <v>3</v>
@@ -3707,7 +3707,7 @@
     <row r="8" spans="1:13" ht="16.5" customHeight="1">
       <c r="A8" s="106"/>
       <c r="B8" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C8" s="88">
         <v>3</v>
@@ -3730,7 +3730,7 @@
     <row r="9" spans="1:13" ht="16.5" customHeight="1">
       <c r="A9" s="107"/>
       <c r="B9" s="95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" s="88">
         <v>2.5</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="106" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C10" s="89">
         <v>2.5</v>
@@ -3778,7 +3778,7 @@
     <row r="11" spans="1:13">
       <c r="A11" s="106"/>
       <c r="B11" s="95" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C11" s="88">
         <v>10</v>
@@ -3801,7 +3801,7 @@
     <row r="12" spans="1:13">
       <c r="A12" s="106"/>
       <c r="B12" s="95" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C12" s="88">
         <v>1</v>
@@ -3824,7 +3824,7 @@
     <row r="13" spans="1:13">
       <c r="A13" s="106"/>
       <c r="B13" s="95" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C13" s="88">
         <v>3</v>
@@ -3847,7 +3847,7 @@
     <row r="14" spans="1:13">
       <c r="A14" s="106"/>
       <c r="B14" s="95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C14" s="88">
         <v>3</v>
@@ -4106,7 +4106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>141</v>
@@ -4144,19 +4144,19 @@
         <v>143</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>343</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="36"/>
@@ -4166,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>18</v>
@@ -4175,22 +4175,22 @@
         <v>5</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K2" s="23"/>
       <c r="L2" s="37"/>
@@ -4212,26 +4212,26 @@
         <v>167</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>187</v>
@@ -4295,13 +4295,13 @@
     </row>
     <row r="6" spans="1:13" s="48" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="115" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="99" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="99" t="s">
-        <v>377</v>
-      </c>
       <c r="C6" s="99" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D6" s="100">
         <v>10</v>
@@ -4329,10 +4329,10 @@
     <row r="7" spans="1:13" s="48" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="116"/>
       <c r="B7" s="99" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C7" s="99" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D7" s="100">
         <v>5</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>189</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>191</v>
@@ -4457,7 +4457,7 @@
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="109"/>
       <c r="B11" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>149</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>192</v>
@@ -4521,7 +4521,7 @@
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="109"/>
       <c r="B13" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>151</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="110" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>193</v>
@@ -4585,7 +4585,7 @@
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="114"/>
       <c r="B15" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>153</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>194</v>
@@ -4649,7 +4649,7 @@
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="114"/>
       <c r="B17" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>154</v>
@@ -4679,10 +4679,10 @@
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="113" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>171</v>
@@ -4704,7 +4704,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
@@ -4713,7 +4713,7 @@
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="102"/>
       <c r="B19" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>168</v>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
@@ -4744,7 +4744,7 @@
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="102"/>
       <c r="B20" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>169</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -4773,7 +4773,7 @@
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="103"/>
       <c r="B21" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C21" s="38" t="s">
         <v>170</v>
@@ -4795,7 +4795,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
@@ -4803,10 +4803,10 @@
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>178</v>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
@@ -4837,7 +4837,7 @@
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="102"/>
       <c r="B23" s="38" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>172</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
@@ -4868,7 +4868,7 @@
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="102"/>
       <c r="B24" s="38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>173</v>
@@ -4880,7 +4880,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G24" s="87">
         <v>300</v>
@@ -4892,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="102"/>
       <c r="B25" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" s="38" t="s">
         <v>174</v>
@@ -4918,13 +4918,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="87" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="102"/>
       <c r="B26" s="38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C26" s="46" t="s">
         <v>175</v>
@@ -4946,13 +4946,13 @@
         <v>2</v>
       </c>
       <c r="J26" s="87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="102"/>
       <c r="B27" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C27" s="46" t="s">
         <v>176</v>
@@ -4974,13 +4974,13 @@
         <v>5</v>
       </c>
       <c r="J27" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="102"/>
       <c r="B28" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C28" s="46" t="s">
         <v>177</v>
@@ -5002,13 +5002,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="102"/>
       <c r="B29" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C29" s="46" t="s">
         <v>179</v>
@@ -5028,13 +5028,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="87" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="103"/>
       <c r="B30" s="38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C30" s="46" t="s">
         <v>180</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="87" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -5064,7 +5064,7 @@
         <v>181</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C31" s="46" t="s">
         <v>182</v>
@@ -5088,7 +5088,7 @@
     <row r="32" spans="1:13">
       <c r="A32" s="104"/>
       <c r="B32" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C32" s="46" t="s">
         <v>183</v>
@@ -5114,7 +5114,7 @@
     <row r="33" spans="1:10">
       <c r="A33" s="104"/>
       <c r="B33" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C33" s="46" t="s">
         <v>184</v>
@@ -5140,7 +5140,7 @@
     <row r="34" spans="1:10">
       <c r="A34" s="104"/>
       <c r="B34" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C34" s="46" t="s">
         <v>185</v>
@@ -5166,7 +5166,7 @@
     <row r="35" spans="1:10">
       <c r="A35" s="112"/>
       <c r="B35" s="38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C35" s="46" t="s">
         <v>186</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -5222,62 +5222,62 @@
   <sheetData>
     <row r="1" spans="1:4" ht="65.25" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="34"/>
       <c r="D1" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="87">
         <v>1</v>
@@ -5288,13 +5288,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D6" s="87">
         <v>1</v>
@@ -5302,13 +5302,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D7" s="88">
         <v>2</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" s="87">
         <v>2</v>
@@ -5330,10 +5330,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C9" s="88">
         <v>3</v>
@@ -5344,13 +5344,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D10" s="87">
         <v>1</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C11" s="88" t="s">
         <v>155</v>
@@ -5372,10 +5372,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="88">
         <v>4</v>
@@ -5386,10 +5386,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C13" s="93">
         <v>3</v>
@@ -5400,10 +5400,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C14" s="93">
         <v>4</v>
@@ -5422,11 +5422,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5447,32 +5447,32 @@
         <v>202</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="120"/>
       <c r="D1" s="118"/>
       <c r="E1" s="117" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F1" s="120"/>
       <c r="G1" s="120"/>
       <c r="H1" s="118"/>
       <c r="I1" s="117" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J1" s="118"/>
       <c r="K1" s="117" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L1" s="118"/>
       <c r="M1" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="N1" s="70" t="s">
-        <v>217</v>
-      </c>
       <c r="O1" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="55" customFormat="1">
@@ -5498,7 +5498,7 @@
         <v>201</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I2" s="68" t="s">
         <v>204</v>
@@ -5513,65 +5513,65 @@
         <v>207</v>
       </c>
       <c r="M2" s="68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N2" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="O2" s="68" t="s">
         <v>304</v>
-      </c>
-      <c r="O2" s="68" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="57" customFormat="1">
       <c r="A3" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>209</v>
-      </c>
       <c r="F3" s="77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H3" s="74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I3" s="75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K3" s="75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L3" s="75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M3" s="75" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N3" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="O3" s="75" t="s">
         <v>347</v>
-      </c>
-      <c r="O3" s="75" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="58" customFormat="1">
       <c r="A4" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" s="67">
         <v>2135</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="5" spans="1:15" s="58" customFormat="1">
       <c r="A5" s="62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B5" s="67">
         <v>8.5</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="6" spans="1:15" s="58" customFormat="1">
       <c r="A6" s="62" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B6" s="67">
         <v>80</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="7" spans="1:15" s="58" customFormat="1">
       <c r="A7" s="62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B7" s="67">
         <v>40</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="8" spans="1:15" s="58" customFormat="1">
       <c r="A8" s="62" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B8" s="67">
         <v>32</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="9" spans="1:15" s="58" customFormat="1">
       <c r="A9" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B9" s="67">
         <v>3</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="10" spans="1:15" s="58" customFormat="1">
       <c r="A10" s="62" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B10" s="67">
         <v>360</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="83" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B14" s="67">
         <v>0</v>
@@ -7086,27 +7086,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.25">
       <c r="A1" s="53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="97" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -7116,27 +7116,27 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources_moved/CSVSheet/DataTable.xlsx
+++ b/Assets/Resources_moved/CSVSheet/DataTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterSkill" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="405">
   <si>
     <t>참고사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1532,6 +1532,45 @@
   <si>
     <t>Tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>alpha_attack</t>
+  </si>
+  <si>
+    <t>alpha_defense</t>
+  </si>
+  <si>
+    <t>alpha_critical</t>
+  </si>
+  <si>
+    <t>alpha_skill</t>
+  </si>
+  <si>
+    <t>alpha_heal</t>
+  </si>
+  <si>
+    <t>beta_hp</t>
+  </si>
+  <si>
+    <t>beta_healPerSec</t>
+  </si>
+  <si>
+    <t>beta_speed</t>
+  </si>
+  <si>
+    <t>beta_cooldown</t>
+  </si>
+  <si>
+    <t>beta_reload</t>
   </si>
 </sst>
 </file>
@@ -1969,7 +2008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2356,6 +2395,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3528,7 +3579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -3544,15 +3597,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="F1" s="3"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -3565,19 +3617,21 @@
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="130" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3589,19 +3643,21 @@
       <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="131" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
@@ -3613,19 +3669,21 @@
       <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="132" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -3637,19 +3695,21 @@
       <c r="A5" s="105" t="s">
         <v>326</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="129" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="88">
+      <c r="D5" s="88">
         <v>2.5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>8</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="92"/>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3660,19 +3720,21 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="106"/>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="129" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="95" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="88">
+      <c r="D6" s="88">
         <v>2.5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>8</v>
       </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="92"/>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -3683,19 +3745,21 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="106"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="129" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="95" t="s">
         <v>318</v>
       </c>
-      <c r="C7" s="88">
+      <c r="D7" s="88">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>10</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="92"/>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3706,19 +3770,21 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1">
       <c r="A8" s="106"/>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="129" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="95" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="88">
+      <c r="D8" s="88">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <v>10</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="92"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -3729,19 +3795,21 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1">
       <c r="A9" s="107"/>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="129" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="95" t="s">
         <v>320</v>
       </c>
-      <c r="C9" s="88">
+      <c r="D9" s="88">
         <v>2.5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <v>8</v>
       </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -3754,19 +3822,21 @@
       <c r="A10" s="106" t="s">
         <v>327</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="129" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="95" t="s">
         <v>321</v>
       </c>
-      <c r="C10" s="89">
+      <c r="D10" s="89">
         <v>2.5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <v>8</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="92"/>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -3777,19 +3847,21 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="106"/>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="129" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" s="95" t="s">
         <v>322</v>
       </c>
-      <c r="C11" s="88">
+      <c r="D11" s="88">
         <v>10</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <v>50</v>
       </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="92"/>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -3800,19 +3872,21 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="106"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="129" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="95" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="88">
+      <c r="D12" s="88">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <v>4</v>
       </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -3823,19 +3897,21 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="106"/>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="129" t="s">
+        <v>403</v>
+      </c>
+      <c r="C13" s="95" t="s">
         <v>324</v>
       </c>
-      <c r="C13" s="88">
+      <c r="D13" s="88">
         <v>3</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="6">
         <v>10</v>
       </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="92"/>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -3846,19 +3922,21 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="106"/>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="129" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="95" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="88">
+      <c r="D14" s="88">
         <v>3</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <v>10</v>
       </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="92"/>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -5422,7 +5500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
